--- a/resource/ExcelTables/Item.xlsx
+++ b/resource/ExcelTables/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\github\atframework\atsf4g-co\resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ProjectY\trunk\Tables\datasource\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5684EC-BDE4-45B1-99AB-30A72B05A659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E331C70-4512-48DC-ABD1-F2132D4735C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31740" yWindow="3040" windowWidth="26350" windowHeight="16150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具描述总表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>test_duration</t>
   </si>
@@ -86,11 +86,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>使用行为类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_action</t>
+    <t>unlock_lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_max_stacking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -472,21 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="5" width="13.4140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -496,11 +516,10 @@
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -511,10 +530,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -524,9 +552,12 @@
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -536,39 +567,54 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
